--- a/data/out/Result.xlsx
+++ b/data/out/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="118">
   <si>
     <t>&lt;&gt;</t>
   </si>
@@ -82,46 +82,67 @@
     <t>+</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FA8L3X01</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>a1946</t>
+  </si>
+  <si>
+    <t>L3Y-PROD-CH/WM</t>
+  </si>
+  <si>
+    <t>op l3xltapp post ibc</t>
+  </si>
+  <si>
+    <t>rx:DEMAN ($EF1031)? $FG</t>
+  </si>
+  <si>
+    <t>/app/L3X/dyn/asi</t>
+  </si>
+  <si>
+    <t>ufa81001</t>
+  </si>
+  <si>
+    <t>ul3y1001</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>a2686</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>FA8L3X01</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>L3Y-PROD-CH/WM</t>
-  </si>
-  <si>
-    <t>op l3xltapp post ibc</t>
-  </si>
-  <si>
-    <t>rx:DEMAN ($EF1031)? $FG</t>
-  </si>
-  <si>
-    <t>/app/L3X/dyn/asi</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>FA8L3X02</t>
   </si>
   <si>
     <t>op l3xltapp post prc</t>
   </si>
   <si>
-    <t>4</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>a4230</t>
   </si>
   <si>
     <t>L3Y-PROD-DE/IT/HK/SG</t>
@@ -130,25 +151,31 @@
     <t>$DEMAN $EF1031 $FG</t>
   </si>
   <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>a2020</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>898</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>P7</t>
+    <t>31</t>
   </si>
   <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>6</t>
@@ -227,31 +254,34 @@
     </r>
   </si>
   <si>
-    <t>8</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>GNZL3X01</t>
   </si>
   <si>
+    <t>op l3xltapp post</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>op l3xltapp post</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <r>
@@ -272,6 +302,22 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>op l3xltapp post</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>89</t>
+    </r>
     <r>
       <rPr>
         <color indexed="17"/>
@@ -280,7 +326,7 @@
         <family val="2"/>
         <strike val="true"/>
       </rPr>
-      <t>N/A</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -289,8 +335,54 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>op l3xltapp post</t>
+      <t>1</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <strike val="true"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <color rgb="8D1911"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <r>
@@ -311,13 +403,10 @@
     </r>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -338,13 +427,25 @@
     </r>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>L3YFA801</t>
@@ -356,7 +457,10 @@
     <t>/app/FA8/dyn/asi</t>
   </si>
   <si>
-    <t>15</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <r>
@@ -424,10 +528,7 @@
     </r>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>34</t>
   </si>
   <si>
     <r>
@@ -448,10 +549,25 @@
     </r>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>L3YPTK01</t>
   </si>
   <si>
     <t>019</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <r>
@@ -464,6 +580,9 @@
   </si>
   <si>
     <t>/app/FB8/dyn/asi</t>
+  </si>
+  <si>
+    <t>ufb81001</t>
   </si>
   <si>
     <t>L3ZFB801</t>
@@ -567,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -681,44 +800,44 @@
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
@@ -738,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -747,46 +866,46 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
@@ -806,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -815,46 +934,46 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
         <v>23</v>
@@ -883,114 +1002,114 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="5">
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="P6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>51</v>
+      <c r="Q6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="S6" t="s">
         <v>23</v>
@@ -1010,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
@@ -1019,46 +1138,46 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
         <v>23</v>
@@ -1078,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>23</v>
@@ -1087,46 +1206,46 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
@@ -1146,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
@@ -1155,114 +1274,114 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="H10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>57</v>
+      <c r="K10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="S10" t="s">
         <v>23</v>
@@ -1279,262 +1398,262 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="P13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="7" t="s">
+      <c r="P14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>70</v>
+      <c r="R14" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
@@ -1554,7 +1673,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
@@ -1563,46 +1682,46 @@
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="S15" t="s">
         <v>23</v>
@@ -1619,262 +1738,262 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="5">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="5" t="s">
+      <c r="Q18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" t="s">
-        <v>23</v>
-      </c>
-      <c r="V16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="H19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" t="s">
-        <v>23</v>
-      </c>
-      <c r="V17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -1891,69 +2010,1293 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="Q21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" t="s">
-        <v>23</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="C22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S27" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" t="s">
+        <v>23</v>
+      </c>
+      <c r="V28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" t="s">
+        <v>23</v>
+      </c>
+      <c r="V29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="S32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S33" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" t="s">
+        <v>23</v>
+      </c>
+      <c r="U33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" t="s">
+        <v>23</v>
+      </c>
+      <c r="U34" t="s">
+        <v>23</v>
+      </c>
+      <c r="V34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="S35" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" t="s">
+        <v>23</v>
+      </c>
+      <c r="V35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" t="s">
+        <v>23</v>
+      </c>
+      <c r="V36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S37" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S38" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" t="s">
+        <v>23</v>
+      </c>
+      <c r="U38" t="s">
+        <v>23</v>
+      </c>
+      <c r="V38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1964,7 +3307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2065,43 +3408,43 @@
         <v>24</v>
       </c>
       <c r="D2" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G2" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s" s="7">
         <v>23</v>
@@ -2124,46 +3467,46 @@
         <v>23</v>
       </c>
       <c r="C3" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="D3" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s" s="7">
+      <c r="N3" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="I3" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>39</v>
-      </c>
       <c r="O3" t="s" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s" s="7">
         <v>23</v>
@@ -2180,52 +3523,52 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C4" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="D4" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s" s="7">
+      <c r="N4" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="I4" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s" s="7">
-        <v>42</v>
-      </c>
       <c r="O4" t="s" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s" s="7">
         <v>23</v>
@@ -2242,52 +3585,52 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G5" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="7">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s" s="7">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s" s="7">
         <v>23</v>
@@ -2304,52 +3647,52 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s" s="7">
-        <v>37</v>
-      </c>
       <c r="J6" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s" s="7">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s" s="7">
         <v>23</v>
@@ -2366,52 +3709,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G7" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s" s="7">
         <v>23</v>
@@ -2428,52 +3771,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G8" t="s" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s" s="7">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s" s="7">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s" s="7">
         <v>23</v>
@@ -2490,52 +3833,52 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C9" t="s" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G9" t="s" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s" s="7">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s" s="7">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s" s="7">
         <v>23</v>
@@ -2552,52 +3895,52 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G10" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s" s="7">
         <v>23</v>
@@ -2614,52 +3957,52 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C11" t="s" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G11" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s" s="7">
         <v>23</v>
@@ -2676,52 +4019,52 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="M12" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s" s="7">
-        <v>42</v>
-      </c>
       <c r="O12" t="s" s="7">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s" s="7">
         <v>23</v>
@@ -2738,52 +4081,52 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C13" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G13" t="s" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s" s="7">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s" s="7">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s" s="7">
         <v>23</v>
@@ -2800,52 +4143,52 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C14" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s" s="7">
         <v>25</v>
       </c>
       <c r="G14" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P14" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s" s="7">
         <v>23</v>
@@ -2862,52 +4205,52 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C15" t="s" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s" s="7">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s" s="7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P15" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="s" s="7">
         <v>23</v>
@@ -2924,52 +4267,52 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s" s="7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N16" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q16" t="s" s="7">
         <v>23</v>
@@ -2986,52 +4329,52 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C17" t="s" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s" s="7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q17" t="s" s="7">
         <v>23</v>
@@ -3048,52 +4391,52 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s" s="7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="7">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s" s="7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N18" t="s" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O18" t="s" s="7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q18" t="s" s="7">
         <v>23</v>
@@ -3110,52 +4453,52 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C19" t="s" s="7">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s" s="7">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O19" t="s" s="7">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s" s="7">
         <v>23</v>
@@ -3172,63 +4515,1179 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C20" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O20" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S20" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T20" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="O21" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T21" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="N22" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="P22" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q22" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S22" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T22" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I23" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="N23" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S23" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T23" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="O24" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S24" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T24" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="O25" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q25" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="P26" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="O27" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="P27" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q27" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R27" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S27" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T27" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J28" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K28" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M28" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="N28" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="O28" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="P28" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q28" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R28" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S28" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T28" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="D20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="K20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="M20" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s" s="7">
+      <c r="B29" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J29" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K29" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="O20" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="P20" t="s" s="7">
+      <c r="M29" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="O29" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="P29" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R29" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S29" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T29" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J30" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K30" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="Q20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="R20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="S20" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="T20" t="s" s="7">
+      <c r="M30" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="P30" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q30" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R30" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S30" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T30" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J31" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O31" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R31" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S31" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T31" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J32" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M32" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="N32" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="O32" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="P32" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q32" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S32" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T32" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="O33" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="P33" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q33" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R33" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S33" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T33" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="N34" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="O34" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="P34" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R34" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S34" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T34" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J35" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="K35" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="N35" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="O35" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="P35" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q35" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R35" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S35" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T35" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N36" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="P36" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q36" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R36" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S36" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T36" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N37" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q37" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R37" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S37" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T37" t="s" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="J38" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="K38" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="M38" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="N38" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="P38" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q38" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="R38" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="S38" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="T38" t="s" s="7">
         <v>23</v>
       </c>
     </row>
@@ -3331,13 +5790,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C2" t="s" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="7">
         <v>23</v>
@@ -3349,10 +5808,10 @@
         <v>25</v>
       </c>
       <c r="G2" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="7">
         <v>23</v>
@@ -3367,16 +5826,16 @@
         <v>23</v>
       </c>
       <c r="M2" t="s" s="7">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s" s="7">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s" s="7">
         <v>23</v>
@@ -3393,13 +5852,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s" s="7">
         <v>23</v>
@@ -3411,10 +5870,10 @@
         <v>25</v>
       </c>
       <c r="G3" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s" s="7">
         <v>23</v>
@@ -3429,16 +5888,16 @@
         <v>23</v>
       </c>
       <c r="M3" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s" s="7">
         <v>23</v>
@@ -3455,13 +5914,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s" s="7">
         <v>23</v>
@@ -3473,10 +5932,10 @@
         <v>25</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s" s="7">
         <v>23</v>
@@ -3491,16 +5950,16 @@
         <v>23</v>
       </c>
       <c r="M4" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s" s="7">
         <v>23</v>
@@ -3517,13 +5976,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s" s="7">
         <v>23</v>
@@ -3535,10 +5994,10 @@
         <v>25</v>
       </c>
       <c r="G5" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s" s="7">
         <v>23</v>
@@ -3553,16 +6012,16 @@
         <v>23</v>
       </c>
       <c r="M5" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s" s="7">
         <v>23</v>
@@ -3579,13 +6038,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s" s="7">
         <v>23</v>
@@ -3597,10 +6056,10 @@
         <v>25</v>
       </c>
       <c r="G6" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s" s="7">
         <v>23</v>
@@ -3615,16 +6074,16 @@
         <v>23</v>
       </c>
       <c r="M6" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s" s="7">
         <v>23</v>
@@ -3641,13 +6100,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s" s="7">
         <v>23</v>
@@ -3656,7 +6115,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="7">
         <v>25</v>
@@ -3677,16 +6136,16 @@
         <v>23</v>
       </c>
       <c r="M7" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s" s="7">
         <v>23</v>
@@ -3703,13 +6162,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s" s="7">
         <v>23</v>
@@ -3718,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="7">
         <v>25</v>
@@ -3739,16 +6198,16 @@
         <v>23</v>
       </c>
       <c r="M8" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s" s="7">
         <v>23</v>
@@ -3765,13 +6224,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C9" t="s" s="7">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s" s="7">
         <v>23</v>
@@ -3801,16 +6260,16 @@
         <v>23</v>
       </c>
       <c r="M9" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s" s="7">
         <v>23</v>
